--- a/academycity/data/avi/datasets/excel/world_bank/output/2019_RandD_o.xlsx
+++ b/academycity/data/avi/datasets/excel/world_bank/output/2019_RandD_o.xlsx
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.058684</v>
+        <v>0.058284</v>
       </c>
     </row>
     <row r="3">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7333150000000001</v>
+        <v>0.728312</v>
       </c>
     </row>
     <row r="4">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.129269</v>
+        <v>0.128387</v>
       </c>
     </row>
     <row r="5">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.640432</v>
+        <v>0.636064</v>
       </c>
     </row>
     <row r="6">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.052779</v>
+        <v>-0.052419</v>
       </c>
     </row>
     <row r="7">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.230674</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="8">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.045509</v>
+        <v>-0.045199</v>
       </c>
     </row>
     <row r="9">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09346699999999999</v>
+        <v>0.09282899999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.189525</v>
+        <v>0.188232</v>
       </c>
     </row>
     <row r="11">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.117168</v>
+        <v>0.116369</v>
       </c>
     </row>
     <row r="12">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.455716</v>
+        <v>0.452607</v>
       </c>
     </row>
     <row r="13">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.993179</v>
       </c>
     </row>
     <row r="14">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.108758</v>
+        <v>-0.108016</v>
       </c>
     </row>
     <row r="16">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.42563</v>
+        <v>0.422726</v>
       </c>
     </row>
     <row r="17">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.925969</v>
+        <v>0.9196530000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.576554</v>
+        <v>0.572621</v>
       </c>
     </row>
     <row r="19">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.126383</v>
+        <v>0.125521</v>
       </c>
     </row>
     <row r="20">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.661151</v>
+        <v>0.656641</v>
       </c>
     </row>
     <row r="21">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.42029</v>
+        <v>0.417423</v>
       </c>
     </row>
     <row r="22">
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.117223</v>
+        <v>-0.116423</v>
       </c>
     </row>
     <row r="23">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.497646</v>
+        <v>0.494251</v>
       </c>
     </row>
     <row r="24">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.467494</v>
+        <v>0.464305</v>
       </c>
     </row>
     <row r="25">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.063192</v>
+        <v>-0.062761</v>
       </c>
     </row>
     <row r="26">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.120687</v>
+        <v>0.119863</v>
       </c>
     </row>
     <row r="27">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.101585</v>
+        <v>-0.100892</v>
       </c>
     </row>
     <row r="28">
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.577879</v>
+        <v>0.573937</v>
       </c>
     </row>
     <row r="29">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.264818</v>
+        <v>0.263012</v>
       </c>
     </row>
     <row r="30">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.657985</v>
+        <v>0.653497</v>
       </c>
     </row>
     <row r="31">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.027197</v>
+        <v>-0.027011</v>
       </c>
     </row>
     <row r="32">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.096659</v>
+        <v>1.089178</v>
       </c>
     </row>
     <row r="33">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.092671</v>
+        <v>-0.092039</v>
       </c>
     </row>
     <row r="34">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.156172</v>
+        <v>0.155106</v>
       </c>
     </row>
     <row r="35">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.38537</v>
+        <v>0.382742</v>
       </c>
     </row>
     <row r="36">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.11088</v>
+        <v>-0.110123</v>
       </c>
     </row>
     <row r="37">
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.039582</v>
+        <v>-0.039312</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.071988</v>
+        <v>-0.071497</v>
       </c>
     </row>
     <row r="39">
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.001633</v>
+        <v>0.001622</v>
       </c>
     </row>
     <row r="40">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.115045</v>
+        <v>-0.11426</v>
       </c>
     </row>
     <row r="41">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.707243</v>
+        <v>0.702419</v>
       </c>
     </row>
     <row r="42">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.72732</v>
+        <v>0.722359</v>
       </c>
     </row>
     <row r="43">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.00551</v>
+        <v>-0.005473</v>
       </c>
     </row>
     <row r="44">
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.845901</v>
+        <v>0.840131</v>
       </c>
     </row>
     <row r="45">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.06798800000000001</v>
+        <v>-0.067524</v>
       </c>
     </row>
     <row r="46">
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.06393699999999999</v>
+        <v>-0.063501</v>
       </c>
     </row>
     <row r="47">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.096812</v>
+        <v>-0.096151</v>
       </c>
     </row>
     <row r="48">
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.341728</v>
+        <v>0.339397</v>
       </c>
     </row>
     <row r="49">
@@ -2164,7 +2164,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.590172</v>
+        <v>0.5861459999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.010267</v>
+        <v>0.010197</v>
       </c>
     </row>
     <row r="51">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.277924</v>
+        <v>0.276028</v>
       </c>
     </row>
     <row r="52">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.110814</v>
+        <v>-0.110059</v>
       </c>
     </row>
     <row r="53">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.184174</v>
+        <v>0.182918</v>
       </c>
     </row>
     <row r="54">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.93455</v>
+        <v>0.928175</v>
       </c>
     </row>
     <row r="55">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.330621</v>
+        <v>0.328366</v>
       </c>
     </row>
     <row r="56">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.611724</v>
+        <v>0.607551</v>
       </c>
     </row>
     <row r="57">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.049274</v>
+        <v>-0.048938</v>
       </c>
     </row>
     <row r="58">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.326209</v>
+        <v>0.323983</v>
       </c>
     </row>
     <row r="59">
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.013736</v>
+        <v>1.006821</v>
       </c>
     </row>
     <row r="60">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.68364</v>
+        <v>0.6789770000000001</v>
       </c>
     </row>
     <row r="61">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.139588</v>
+        <v>0.138635</v>
       </c>
     </row>
     <row r="62">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.112537</v>
+        <v>-0.111769</v>
       </c>
     </row>
     <row r="63">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.04819</v>
+        <v>-0.047862</v>
       </c>
     </row>
     <row r="64">
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.133042</v>
+        <v>0.132134</v>
       </c>
     </row>
     <row r="65">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.115602</v>
+        <v>0.114813</v>
       </c>
     </row>
     <row r="66">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.008037000000000001</v>
+        <v>0.007982</v>
       </c>
     </row>
     <row r="67">
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.225198</v>
+        <v>0.223662</v>
       </c>
     </row>
     <row r="68">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.558077</v>
+        <v>0.55427</v>
       </c>
     </row>
     <row r="69">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
     </row>
     <row r="70">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.013948</v>
+        <v>-0.013852</v>
       </c>
     </row>
     <row r="71">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.058859</v>
+        <v>-0.058458</v>
       </c>
     </row>
     <row r="72">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.085018</v>
+        <v>-0.084438</v>
       </c>
     </row>
     <row r="73">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.009875999999999999</v>
+        <v>-0.009809</v>
       </c>
     </row>
     <row r="74">
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.29302</v>
+        <v>0.291021</v>
       </c>
     </row>
     <row r="75">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.129137</v>
+        <v>0.128256</v>
       </c>
     </row>
     <row r="76">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
     </row>
     <row r="77">
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
     </row>
     <row r="78">
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.511903</v>
+        <v>0.5084109999999999</v>
       </c>
     </row>
     <row r="79">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.35696</v>
+        <v>0.354525</v>
       </c>
     </row>
     <row r="80">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.144485</v>
+        <v>0.143499</v>
       </c>
     </row>
     <row r="81">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.156499</v>
+        <v>0.155431</v>
       </c>
     </row>
     <row r="82">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.483989</v>
+        <v>0.480687</v>
       </c>
     </row>
     <row r="83">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.5562820000000001</v>
+        <v>0.552488</v>
       </c>
     </row>
     <row r="84">
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.107847</v>
+        <v>0.107111</v>
       </c>
     </row>
     <row r="85">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
     </row>
     <row r="86">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.481377</v>
+        <v>0.478093</v>
       </c>
     </row>
     <row r="87">
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.571643</v>
+        <v>0.567743</v>
       </c>
     </row>
     <row r="88">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.087161</v>
+        <v>0.08656700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.058684</v>
+        <v>0.058284</v>
       </c>
     </row>
     <row r="3">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7333150000000001</v>
+        <v>0.728312</v>
       </c>
     </row>
     <row r="4">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.129269</v>
+        <v>0.128387</v>
       </c>
     </row>
     <row r="5">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.640432</v>
+        <v>0.636064</v>
       </c>
     </row>
     <row r="6">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.230674</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="8">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09346699999999999</v>
+        <v>0.09282899999999999</v>
       </c>
     </row>
     <row r="10">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.189525</v>
+        <v>0.188232</v>
       </c>
     </row>
     <row r="11">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.117168</v>
+        <v>0.116369</v>
       </c>
     </row>
     <row r="12">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.455716</v>
+        <v>0.452607</v>
       </c>
     </row>
     <row r="13">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.993179</v>
       </c>
     </row>
     <row r="14">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.42563</v>
+        <v>0.422726</v>
       </c>
     </row>
     <row r="17">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.925969</v>
+        <v>0.9196530000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.576554</v>
+        <v>0.572621</v>
       </c>
     </row>
     <row r="19">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.126383</v>
+        <v>0.125521</v>
       </c>
     </row>
     <row r="20">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.661151</v>
+        <v>0.656641</v>
       </c>
     </row>
     <row r="21">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.42029</v>
+        <v>0.417423</v>
       </c>
     </row>
     <row r="22">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.497646</v>
+        <v>0.494251</v>
       </c>
     </row>
     <row r="24">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.467494</v>
+        <v>0.464305</v>
       </c>
     </row>
     <row r="25">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.120687</v>
+        <v>0.119863</v>
       </c>
     </row>
     <row r="27">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.577879</v>
+        <v>0.573937</v>
       </c>
     </row>
     <row r="29">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.264818</v>
+        <v>0.263012</v>
       </c>
     </row>
     <row r="30">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.657985</v>
+        <v>0.653497</v>
       </c>
     </row>
     <row r="31">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.156172</v>
+        <v>0.155106</v>
       </c>
     </row>
     <row r="35">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.38537</v>
+        <v>0.382742</v>
       </c>
     </row>
     <row r="36">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.001633</v>
+        <v>0.001622</v>
       </c>
     </row>
     <row r="40">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.707243</v>
+        <v>0.702419</v>
       </c>
     </row>
     <row r="42">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.72732</v>
+        <v>0.722359</v>
       </c>
     </row>
     <row r="43">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.845901</v>
+        <v>0.840131</v>
       </c>
     </row>
     <row r="45">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.341728</v>
+        <v>0.339397</v>
       </c>
     </row>
     <row r="49">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.590172</v>
+        <v>0.5861459999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.010267</v>
+        <v>0.010197</v>
       </c>
     </row>
     <row r="51">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.277924</v>
+        <v>0.276028</v>
       </c>
     </row>
     <row r="52">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.184174</v>
+        <v>0.182918</v>
       </c>
     </row>
     <row r="54">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.93455</v>
+        <v>0.928175</v>
       </c>
     </row>
     <row r="55">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.330621</v>
+        <v>0.328366</v>
       </c>
     </row>
     <row r="56">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.611724</v>
+        <v>0.607551</v>
       </c>
     </row>
     <row r="57">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.326209</v>
+        <v>0.323983</v>
       </c>
     </row>
     <row r="59">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.68364</v>
+        <v>0.6789770000000001</v>
       </c>
     </row>
     <row r="61">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.139588</v>
+        <v>0.138635</v>
       </c>
     </row>
     <row r="62">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.133042</v>
+        <v>0.132134</v>
       </c>
     </row>
     <row r="65">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.115602</v>
+        <v>0.114813</v>
       </c>
     </row>
     <row r="66">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.008037000000000001</v>
+        <v>0.007982</v>
       </c>
     </row>
     <row r="67">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.225198</v>
+        <v>0.223662</v>
       </c>
     </row>
     <row r="68">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.558077</v>
+        <v>0.55427</v>
       </c>
     </row>
     <row r="69">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
     </row>
     <row r="70">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.29302</v>
+        <v>0.291021</v>
       </c>
     </row>
     <row r="75">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.129137</v>
+        <v>0.128256</v>
       </c>
     </row>
     <row r="76">
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
     </row>
     <row r="77">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
     </row>
     <row r="78">
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.511903</v>
+        <v>0.5084109999999999</v>
       </c>
     </row>
     <row r="79">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.35696</v>
+        <v>0.354525</v>
       </c>
     </row>
     <row r="80">
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.144485</v>
+        <v>0.143499</v>
       </c>
     </row>
     <row r="81">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.156499</v>
+        <v>0.155431</v>
       </c>
     </row>
     <row r="82">
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.483989</v>
+        <v>0.480687</v>
       </c>
     </row>
     <row r="83">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.5562820000000001</v>
+        <v>0.552488</v>
       </c>
     </row>
     <row r="84">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.107847</v>
+        <v>0.107111</v>
       </c>
     </row>
     <row r="85">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
     </row>
     <row r="86">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.481377</v>
+        <v>0.478093</v>
       </c>
     </row>
     <row r="87">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.571643</v>
+        <v>0.567743</v>
       </c>
     </row>
     <row r="88">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.087161</v>
+        <v>0.08656700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.058684</v>
+        <v>0.058284</v>
       </c>
       <c r="D2" t="n">
-        <v>0.058684</v>
+        <v>0.058284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.058684</v>
+        <v>0.058284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.058684</v>
+        <v>0.058284</v>
       </c>
     </row>
     <row r="3">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7333150000000001</v>
+        <v>0.728312</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7333150000000001</v>
+        <v>0.728312</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7333150000000001</v>
+        <v>0.728312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7333150000000001</v>
+        <v>0.728312</v>
       </c>
     </row>
     <row r="4">
@@ -3936,16 +3936,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.129269</v>
+        <v>0.128387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.129269</v>
+        <v>0.128387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.129269</v>
+        <v>0.128387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.129269</v>
+        <v>0.128387</v>
       </c>
     </row>
     <row r="5">
@@ -3958,16 +3958,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.640432</v>
+        <v>0.636064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.640432</v>
+        <v>0.636064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.640432</v>
+        <v>0.636064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.640432</v>
+        <v>0.636064</v>
       </c>
     </row>
     <row r="6">
@@ -3980,10 +3980,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.052779</v>
+        <v>-0.052419</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.052779</v>
+        <v>-0.052419</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4002,16 +4002,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.230674</v>
+        <v>0.2291</v>
       </c>
       <c r="D7" t="n">
-        <v>0.230674</v>
+        <v>0.2291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.230674</v>
+        <v>0.2291</v>
       </c>
       <c r="F7" t="n">
-        <v>0.230674</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="8">
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.045509</v>
+        <v>-0.045199</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.045509</v>
+        <v>-0.045199</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -4046,16 +4046,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09346699999999999</v>
+        <v>0.09282899999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09346699999999999</v>
+        <v>0.09282899999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09346699999999999</v>
+        <v>0.09282899999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09346699999999999</v>
+        <v>0.09282899999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4068,16 +4068,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.189525</v>
+        <v>0.188232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.189525</v>
+        <v>0.188232</v>
       </c>
       <c r="E10" t="n">
-        <v>0.189525</v>
+        <v>0.188232</v>
       </c>
       <c r="F10" t="n">
-        <v>0.189525</v>
+        <v>0.188232</v>
       </c>
     </row>
     <row r="11">
@@ -4090,16 +4090,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.117168</v>
+        <v>0.116369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117168</v>
+        <v>0.116369</v>
       </c>
       <c r="E11" t="n">
-        <v>0.117168</v>
+        <v>0.116369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.117168</v>
+        <v>0.116369</v>
       </c>
     </row>
     <row r="12">
@@ -4112,16 +4112,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.455716</v>
+        <v>0.452607</v>
       </c>
       <c r="D12" t="n">
-        <v>0.455716</v>
+        <v>0.452607</v>
       </c>
       <c r="E12" t="n">
-        <v>0.455716</v>
+        <v>0.452607</v>
       </c>
       <c r="F12" t="n">
-        <v>0.455716</v>
+        <v>0.452607</v>
       </c>
     </row>
     <row r="13">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.993179</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.993179</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.993179</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.993179</v>
       </c>
     </row>
     <row r="14">
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.108758</v>
+        <v>-0.108016</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.108758</v>
+        <v>-0.108016</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4200,16 +4200,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.42563</v>
+        <v>0.422726</v>
       </c>
       <c r="D16" t="n">
-        <v>0.42563</v>
+        <v>0.422726</v>
       </c>
       <c r="E16" t="n">
-        <v>0.42563</v>
+        <v>0.422726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.42563</v>
+        <v>0.422726</v>
       </c>
     </row>
     <row r="17">
@@ -4222,16 +4222,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.925969</v>
+        <v>0.9196530000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.925969</v>
+        <v>0.9196530000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.925969</v>
+        <v>0.9196530000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.925969</v>
+        <v>0.9196530000000001</v>
       </c>
     </row>
     <row r="18">
@@ -4244,16 +4244,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.576554</v>
+        <v>0.572621</v>
       </c>
       <c r="D18" t="n">
-        <v>0.576554</v>
+        <v>0.572621</v>
       </c>
       <c r="E18" t="n">
-        <v>0.576554</v>
+        <v>0.572621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.576554</v>
+        <v>0.572621</v>
       </c>
     </row>
     <row r="19">
@@ -4266,16 +4266,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.126383</v>
+        <v>0.125521</v>
       </c>
       <c r="D19" t="n">
-        <v>0.126383</v>
+        <v>0.125521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.126383</v>
+        <v>0.125521</v>
       </c>
       <c r="F19" t="n">
-        <v>0.126383</v>
+        <v>0.125521</v>
       </c>
     </row>
     <row r="20">
@@ -4288,16 +4288,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.661151</v>
+        <v>0.656641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.661151</v>
+        <v>0.656641</v>
       </c>
       <c r="E20" t="n">
-        <v>0.661151</v>
+        <v>0.656641</v>
       </c>
       <c r="F20" t="n">
-        <v>0.661151</v>
+        <v>0.656641</v>
       </c>
     </row>
     <row r="21">
@@ -4310,16 +4310,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.42029</v>
+        <v>0.417423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.42029</v>
+        <v>0.417423</v>
       </c>
       <c r="E21" t="n">
-        <v>0.42029</v>
+        <v>0.417423</v>
       </c>
       <c r="F21" t="n">
-        <v>0.42029</v>
+        <v>0.417423</v>
       </c>
     </row>
     <row r="22">
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.117223</v>
+        <v>-0.116423</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.117223</v>
+        <v>-0.116423</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.497646</v>
+        <v>0.494251</v>
       </c>
       <c r="D23" t="n">
-        <v>0.497646</v>
+        <v>0.494251</v>
       </c>
       <c r="E23" t="n">
-        <v>0.497646</v>
+        <v>0.494251</v>
       </c>
       <c r="F23" t="n">
-        <v>0.497646</v>
+        <v>0.494251</v>
       </c>
     </row>
     <row r="24">
@@ -4376,16 +4376,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.467494</v>
+        <v>0.464305</v>
       </c>
       <c r="D24" t="n">
-        <v>0.467494</v>
+        <v>0.464305</v>
       </c>
       <c r="E24" t="n">
-        <v>0.467494</v>
+        <v>0.464305</v>
       </c>
       <c r="F24" t="n">
-        <v>0.467494</v>
+        <v>0.464305</v>
       </c>
     </row>
     <row r="25">
@@ -4398,10 +4398,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.063192</v>
+        <v>-0.062761</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.063192</v>
+        <v>-0.062761</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -4420,16 +4420,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.120687</v>
+        <v>0.119863</v>
       </c>
       <c r="D26" t="n">
-        <v>0.120687</v>
+        <v>0.119863</v>
       </c>
       <c r="E26" t="n">
-        <v>0.120687</v>
+        <v>0.119863</v>
       </c>
       <c r="F26" t="n">
-        <v>0.120687</v>
+        <v>0.119863</v>
       </c>
     </row>
     <row r="27">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.101585</v>
+        <v>-0.100892</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.101585</v>
+        <v>-0.100892</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.577879</v>
+        <v>0.573937</v>
       </c>
       <c r="D28" t="n">
-        <v>0.577879</v>
+        <v>0.573937</v>
       </c>
       <c r="E28" t="n">
-        <v>0.577879</v>
+        <v>0.573937</v>
       </c>
       <c r="F28" t="n">
-        <v>0.577879</v>
+        <v>0.573937</v>
       </c>
     </row>
     <row r="29">
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.264818</v>
+        <v>0.263012</v>
       </c>
       <c r="D29" t="n">
-        <v>0.264818</v>
+        <v>0.263012</v>
       </c>
       <c r="E29" t="n">
-        <v>0.264818</v>
+        <v>0.263012</v>
       </c>
       <c r="F29" t="n">
-        <v>0.264818</v>
+        <v>0.263012</v>
       </c>
     </row>
     <row r="30">
@@ -4508,16 +4508,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.657985</v>
+        <v>0.653497</v>
       </c>
       <c r="D30" t="n">
-        <v>0.657985</v>
+        <v>0.653497</v>
       </c>
       <c r="E30" t="n">
-        <v>0.657985</v>
+        <v>0.653497</v>
       </c>
       <c r="F30" t="n">
-        <v>0.657985</v>
+        <v>0.653497</v>
       </c>
     </row>
     <row r="31">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.027197</v>
+        <v>-0.027011</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.027197</v>
+        <v>-0.027011</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.096659</v>
+        <v>1.089178</v>
       </c>
       <c r="D32" t="n">
-        <v>1.096659</v>
+        <v>1.089178</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4574,10 +4574,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.092671</v>
+        <v>-0.092039</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.092671</v>
+        <v>-0.092039</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4596,16 +4596,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.156172</v>
+        <v>0.155106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.156172</v>
+        <v>0.155106</v>
       </c>
       <c r="E34" t="n">
-        <v>0.156172</v>
+        <v>0.155106</v>
       </c>
       <c r="F34" t="n">
-        <v>0.156172</v>
+        <v>0.155106</v>
       </c>
     </row>
     <row r="35">
@@ -4618,16 +4618,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.38537</v>
+        <v>0.382742</v>
       </c>
       <c r="D35" t="n">
-        <v>0.38537</v>
+        <v>0.382742</v>
       </c>
       <c r="E35" t="n">
-        <v>0.38537</v>
+        <v>0.382742</v>
       </c>
       <c r="F35" t="n">
-        <v>0.38537</v>
+        <v>0.382742</v>
       </c>
     </row>
     <row r="36">
@@ -4640,10 +4640,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.11088</v>
+        <v>-0.110123</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.11088</v>
+        <v>-0.110123</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4662,10 +4662,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.039582</v>
+        <v>-0.039312</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.039582</v>
+        <v>-0.039312</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4684,10 +4684,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.071988</v>
+        <v>-0.071497</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.071988</v>
+        <v>-0.071497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -4706,16 +4706,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.001633</v>
+        <v>0.001622</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001633</v>
+        <v>0.001622</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001633</v>
+        <v>0.001622</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001633</v>
+        <v>0.001622</v>
       </c>
     </row>
     <row r="40">
@@ -4728,10 +4728,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.115045</v>
+        <v>-0.11426</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.115045</v>
+        <v>-0.11426</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -4750,16 +4750,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.707243</v>
+        <v>0.702419</v>
       </c>
       <c r="D41" t="n">
-        <v>0.707243</v>
+        <v>0.702419</v>
       </c>
       <c r="E41" t="n">
-        <v>0.707243</v>
+        <v>0.702419</v>
       </c>
       <c r="F41" t="n">
-        <v>0.707243</v>
+        <v>0.702419</v>
       </c>
     </row>
     <row r="42">
@@ -4772,16 +4772,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.72732</v>
+        <v>0.722359</v>
       </c>
       <c r="D42" t="n">
-        <v>0.72732</v>
+        <v>0.722359</v>
       </c>
       <c r="E42" t="n">
-        <v>0.72732</v>
+        <v>0.722359</v>
       </c>
       <c r="F42" t="n">
-        <v>0.72732</v>
+        <v>0.722359</v>
       </c>
     </row>
     <row r="43">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.00551</v>
+        <v>-0.005473</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.00551</v>
+        <v>-0.005473</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -4816,16 +4816,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.845901</v>
+        <v>0.840131</v>
       </c>
       <c r="D44" t="n">
-        <v>0.845901</v>
+        <v>0.840131</v>
       </c>
       <c r="E44" t="n">
-        <v>0.845901</v>
+        <v>0.840131</v>
       </c>
       <c r="F44" t="n">
-        <v>0.845901</v>
+        <v>0.840131</v>
       </c>
     </row>
     <row r="45">
@@ -4838,10 +4838,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.06798800000000001</v>
+        <v>-0.067524</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.06798800000000001</v>
+        <v>-0.067524</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4860,10 +4860,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.06393699999999999</v>
+        <v>-0.063501</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.06393699999999999</v>
+        <v>-0.063501</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.096812</v>
+        <v>-0.096151</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.096812</v>
+        <v>-0.096151</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -4904,16 +4904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.341728</v>
+        <v>0.339397</v>
       </c>
       <c r="D48" t="n">
-        <v>0.341728</v>
+        <v>0.339397</v>
       </c>
       <c r="E48" t="n">
-        <v>0.341728</v>
+        <v>0.339397</v>
       </c>
       <c r="F48" t="n">
-        <v>0.341728</v>
+        <v>0.339397</v>
       </c>
     </row>
     <row r="49">
@@ -4926,16 +4926,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.590172</v>
+        <v>0.5861459999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.590172</v>
+        <v>0.5861459999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.590172</v>
+        <v>0.5861459999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.590172</v>
+        <v>0.5861459999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.010267</v>
+        <v>0.010197</v>
       </c>
       <c r="D50" t="n">
-        <v>0.010267</v>
+        <v>0.010197</v>
       </c>
       <c r="E50" t="n">
-        <v>0.010267</v>
+        <v>0.010197</v>
       </c>
       <c r="F50" t="n">
-        <v>0.010267</v>
+        <v>0.010197</v>
       </c>
     </row>
     <row r="51">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.277924</v>
+        <v>0.276028</v>
       </c>
       <c r="D51" t="n">
-        <v>0.277924</v>
+        <v>0.276028</v>
       </c>
       <c r="E51" t="n">
-        <v>0.277924</v>
+        <v>0.276028</v>
       </c>
       <c r="F51" t="n">
-        <v>0.277924</v>
+        <v>0.276028</v>
       </c>
     </row>
     <row r="52">
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.110814</v>
+        <v>-0.110059</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.110814</v>
+        <v>-0.110059</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -5014,16 +5014,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.184174</v>
+        <v>0.182918</v>
       </c>
       <c r="D53" t="n">
-        <v>0.184174</v>
+        <v>0.182918</v>
       </c>
       <c r="E53" t="n">
-        <v>0.184174</v>
+        <v>0.182918</v>
       </c>
       <c r="F53" t="n">
-        <v>0.184174</v>
+        <v>0.182918</v>
       </c>
     </row>
     <row r="54">
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.93455</v>
+        <v>0.928175</v>
       </c>
       <c r="D54" t="n">
-        <v>0.93455</v>
+        <v>0.928175</v>
       </c>
       <c r="E54" t="n">
-        <v>0.93455</v>
+        <v>0.928175</v>
       </c>
       <c r="F54" t="n">
-        <v>0.93455</v>
+        <v>0.928175</v>
       </c>
     </row>
     <row r="55">
@@ -5058,16 +5058,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.330621</v>
+        <v>0.328366</v>
       </c>
       <c r="D55" t="n">
-        <v>0.330621</v>
+        <v>0.328366</v>
       </c>
       <c r="E55" t="n">
-        <v>0.330621</v>
+        <v>0.328366</v>
       </c>
       <c r="F55" t="n">
-        <v>0.330621</v>
+        <v>0.328366</v>
       </c>
     </row>
     <row r="56">
@@ -5080,16 +5080,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.611724</v>
+        <v>0.607551</v>
       </c>
       <c r="D56" t="n">
-        <v>0.611724</v>
+        <v>0.607551</v>
       </c>
       <c r="E56" t="n">
-        <v>0.611724</v>
+        <v>0.607551</v>
       </c>
       <c r="F56" t="n">
-        <v>0.611724</v>
+        <v>0.607551</v>
       </c>
     </row>
     <row r="57">
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.049274</v>
+        <v>-0.048938</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.049274</v>
+        <v>-0.048938</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -5124,16 +5124,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.326209</v>
+        <v>0.323983</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326209</v>
+        <v>0.323983</v>
       </c>
       <c r="E58" t="n">
-        <v>0.326209</v>
+        <v>0.323983</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326209</v>
+        <v>0.323983</v>
       </c>
     </row>
     <row r="59">
@@ -5146,10 +5146,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.013736</v>
+        <v>1.006821</v>
       </c>
       <c r="D59" t="n">
-        <v>1.013736</v>
+        <v>1.006821</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -5168,16 +5168,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.68364</v>
+        <v>0.6789770000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.68364</v>
+        <v>0.6789770000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.68364</v>
+        <v>0.6789770000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.68364</v>
+        <v>0.6789770000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5190,16 +5190,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.139588</v>
+        <v>0.138635</v>
       </c>
       <c r="D61" t="n">
-        <v>0.139588</v>
+        <v>0.138635</v>
       </c>
       <c r="E61" t="n">
-        <v>0.139588</v>
+        <v>0.138635</v>
       </c>
       <c r="F61" t="n">
-        <v>0.139588</v>
+        <v>0.138635</v>
       </c>
     </row>
     <row r="62">
@@ -5212,10 +5212,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.112537</v>
+        <v>-0.111769</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.112537</v>
+        <v>-0.111769</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.04819</v>
+        <v>-0.047862</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.04819</v>
+        <v>-0.047862</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -5256,16 +5256,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.133042</v>
+        <v>0.132134</v>
       </c>
       <c r="D64" t="n">
-        <v>0.133042</v>
+        <v>0.132134</v>
       </c>
       <c r="E64" t="n">
-        <v>0.133042</v>
+        <v>0.132134</v>
       </c>
       <c r="F64" t="n">
-        <v>0.133042</v>
+        <v>0.132134</v>
       </c>
     </row>
     <row r="65">
@@ -5278,16 +5278,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.115602</v>
+        <v>0.114813</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115602</v>
+        <v>0.114813</v>
       </c>
       <c r="E65" t="n">
-        <v>0.115602</v>
+        <v>0.114813</v>
       </c>
       <c r="F65" t="n">
-        <v>0.115602</v>
+        <v>0.114813</v>
       </c>
     </row>
     <row r="66">
@@ -5300,16 +5300,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.008037000000000001</v>
+        <v>0.007982</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008037000000000001</v>
+        <v>0.007982</v>
       </c>
       <c r="E66" t="n">
-        <v>0.008037000000000001</v>
+        <v>0.007982</v>
       </c>
       <c r="F66" t="n">
-        <v>0.008037000000000001</v>
+        <v>0.007982</v>
       </c>
     </row>
     <row r="67">
@@ -5322,16 +5322,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.225198</v>
+        <v>0.223662</v>
       </c>
       <c r="D67" t="n">
-        <v>0.225198</v>
+        <v>0.223662</v>
       </c>
       <c r="E67" t="n">
-        <v>0.225198</v>
+        <v>0.223662</v>
       </c>
       <c r="F67" t="n">
-        <v>0.225198</v>
+        <v>0.223662</v>
       </c>
     </row>
     <row r="68">
@@ -5344,16 +5344,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.558077</v>
+        <v>0.55427</v>
       </c>
       <c r="D68" t="n">
-        <v>0.558077</v>
+        <v>0.55427</v>
       </c>
       <c r="E68" t="n">
-        <v>0.558077</v>
+        <v>0.55427</v>
       </c>
       <c r="F68" t="n">
-        <v>0.558077</v>
+        <v>0.55427</v>
       </c>
     </row>
     <row r="69">
@@ -5366,16 +5366,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
     </row>
     <row r="70">
@@ -5388,10 +5388,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.013948</v>
+        <v>-0.013852</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.013948</v>
+        <v>-0.013852</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.058859</v>
+        <v>-0.058458</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.058859</v>
+        <v>-0.058458</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -5432,10 +5432,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.085018</v>
+        <v>-0.084438</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.085018</v>
+        <v>-0.084438</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -5454,10 +5454,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.009875999999999999</v>
+        <v>-0.009809</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.009875999999999999</v>
+        <v>-0.009809</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -5476,16 +5476,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.29302</v>
+        <v>0.291021</v>
       </c>
       <c r="D74" t="n">
-        <v>0.29302</v>
+        <v>0.291021</v>
       </c>
       <c r="E74" t="n">
-        <v>0.29302</v>
+        <v>0.291021</v>
       </c>
       <c r="F74" t="n">
-        <v>0.29302</v>
+        <v>0.291021</v>
       </c>
     </row>
     <row r="75">
@@ -5498,16 +5498,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.129137</v>
+        <v>0.128256</v>
       </c>
       <c r="D75" t="n">
-        <v>0.129137</v>
+        <v>0.128256</v>
       </c>
       <c r="E75" t="n">
-        <v>0.129137</v>
+        <v>0.128256</v>
       </c>
       <c r="F75" t="n">
-        <v>0.129137</v>
+        <v>0.128256</v>
       </c>
     </row>
     <row r="76">
@@ -5520,16 +5520,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
       <c r="D76" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
       <c r="E76" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
       <c r="F76" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
     </row>
     <row r="77">
@@ -5542,16 +5542,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
       <c r="D77" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
       <c r="E77" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
       <c r="F77" t="n">
-        <v>0.061898</v>
+        <v>0.061476</v>
       </c>
     </row>
     <row r="78">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.511903</v>
+        <v>0.5084109999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.511903</v>
+        <v>0.5084109999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.511903</v>
+        <v>0.5084109999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.511903</v>
+        <v>0.5084109999999999</v>
       </c>
     </row>
     <row r="79">
@@ -5586,16 +5586,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.35696</v>
+        <v>0.354525</v>
       </c>
       <c r="D79" t="n">
-        <v>0.35696</v>
+        <v>0.354525</v>
       </c>
       <c r="E79" t="n">
-        <v>0.35696</v>
+        <v>0.354525</v>
       </c>
       <c r="F79" t="n">
-        <v>0.35696</v>
+        <v>0.354525</v>
       </c>
     </row>
     <row r="80">
@@ -5608,16 +5608,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.144485</v>
+        <v>0.143499</v>
       </c>
       <c r="D80" t="n">
-        <v>0.144485</v>
+        <v>0.143499</v>
       </c>
       <c r="E80" t="n">
-        <v>0.144485</v>
+        <v>0.143499</v>
       </c>
       <c r="F80" t="n">
-        <v>0.144485</v>
+        <v>0.143499</v>
       </c>
     </row>
     <row r="81">
@@ -5630,16 +5630,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.156499</v>
+        <v>0.155431</v>
       </c>
       <c r="D81" t="n">
-        <v>0.156499</v>
+        <v>0.155431</v>
       </c>
       <c r="E81" t="n">
-        <v>0.156499</v>
+        <v>0.155431</v>
       </c>
       <c r="F81" t="n">
-        <v>0.156499</v>
+        <v>0.155431</v>
       </c>
     </row>
     <row r="82">
@@ -5652,16 +5652,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.483989</v>
+        <v>0.480687</v>
       </c>
       <c r="D82" t="n">
-        <v>0.483989</v>
+        <v>0.480687</v>
       </c>
       <c r="E82" t="n">
-        <v>0.483989</v>
+        <v>0.480687</v>
       </c>
       <c r="F82" t="n">
-        <v>0.483989</v>
+        <v>0.480687</v>
       </c>
     </row>
     <row r="83">
@@ -5674,16 +5674,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.5562820000000001</v>
+        <v>0.552488</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5562820000000001</v>
+        <v>0.552488</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5562820000000001</v>
+        <v>0.552488</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5562820000000001</v>
+        <v>0.552488</v>
       </c>
     </row>
     <row r="84">
@@ -5696,16 +5696,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.107847</v>
+        <v>0.107111</v>
       </c>
       <c r="D84" t="n">
-        <v>0.107847</v>
+        <v>0.107111</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107847</v>
+        <v>0.107111</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107847</v>
+        <v>0.107111</v>
       </c>
     </row>
     <row r="85">
@@ -5718,16 +5718,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5779570000000001</v>
+        <v>0.5740150000000001</v>
       </c>
     </row>
     <row r="86">
@@ -5740,16 +5740,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.481377</v>
+        <v>0.478093</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481377</v>
+        <v>0.478093</v>
       </c>
       <c r="E86" t="n">
-        <v>0.481377</v>
+        <v>0.478093</v>
       </c>
       <c r="F86" t="n">
-        <v>0.481377</v>
+        <v>0.478093</v>
       </c>
     </row>
     <row r="87">
@@ -5762,16 +5762,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.571643</v>
+        <v>0.567743</v>
       </c>
       <c r="D87" t="n">
-        <v>0.571643</v>
+        <v>0.567743</v>
       </c>
       <c r="E87" t="n">
-        <v>0.571643</v>
+        <v>0.567743</v>
       </c>
       <c r="F87" t="n">
-        <v>0.571643</v>
+        <v>0.567743</v>
       </c>
     </row>
     <row r="88">
@@ -5784,16 +5784,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.087161</v>
+        <v>0.08656700000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.087161</v>
+        <v>0.08656700000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.087161</v>
+        <v>0.08656700000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.087161</v>
+        <v>0.08656700000000001</v>
       </c>
     </row>
   </sheetData>
